--- a/config/standard/forms/app/death_confirmation.xlsx
+++ b/config/standard/forms/app/death_confirmation.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="98">
   <si>
     <t>list_name</t>
   </si>
@@ -33,6 +33,9 @@
     <t>form_id</t>
   </si>
   <si>
+    <t>place</t>
+  </si>
+  <si>
     <t>version</t>
   </si>
   <si>
@@ -60,18 +63,36 @@
     <t>constraint_message</t>
   </si>
   <si>
+    <t>home</t>
+  </si>
+  <si>
+    <t>Home</t>
+  </si>
+  <si>
+    <t>begin group</t>
+  </si>
+  <si>
+    <t>facility</t>
+  </si>
+  <si>
+    <t>Health facility</t>
+  </si>
+  <si>
+    <t>other</t>
+  </si>
+  <si>
+    <t>Other</t>
+  </si>
+  <si>
+    <t>yes_no</t>
+  </si>
+  <si>
     <t>style</t>
   </si>
   <si>
     <t>Death Confirmation</t>
   </si>
   <si>
-    <t>place</t>
-  </si>
-  <si>
-    <t>begin group</t>
-  </si>
-  <si>
     <t>death_confirmation</t>
   </si>
   <si>
@@ -81,18 +102,24 @@
     <t>Patient</t>
   </si>
   <si>
+    <t>yes</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>no</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
     <t>./source = 'user'</t>
   </si>
   <si>
     <t>field-list</t>
   </si>
   <si>
-    <t>home</t>
-  </si>
-  <si>
-    <t>Home</t>
-  </si>
-  <si>
     <t>string</t>
   </si>
   <si>
@@ -102,21 +129,6 @@
     <t>Source</t>
   </si>
   <si>
-    <t>facility</t>
-  </si>
-  <si>
-    <t>Health facility</t>
-  </si>
-  <si>
-    <t>other</t>
-  </si>
-  <si>
-    <t>Other</t>
-  </si>
-  <si>
-    <t>yes_no</t>
-  </si>
-  <si>
     <t>hidden</t>
   </si>
   <si>
@@ -156,24 +168,12 @@
     <t>Child Name</t>
   </si>
   <si>
-    <t>yes</t>
-  </si>
-  <si>
-    <t>Yes</t>
-  </si>
-  <si>
     <t>patient_id</t>
   </si>
   <si>
     <t>Child ID</t>
   </si>
   <si>
-    <t>no</t>
-  </si>
-  <si>
-    <t>No</t>
-  </si>
-  <si>
     <t>parent</t>
   </si>
   <si>
@@ -193,6 +193,15 @@
   </si>
   <si>
     <t>calculate</t>
+  </si>
+  <si>
+    <t>patient_uuid</t>
+  </si>
+  <si>
+    <t>Patient UUID</t>
+  </si>
+  <si>
+    <t>../inputs/contact/_id</t>
   </si>
   <si>
     <t>child_name</t>
@@ -317,11 +326,11 @@
     <font>
       <b/>
     </font>
+    <font/>
     <font>
       <b/>
       <name val="Arial"/>
     </font>
-    <font/>
     <font>
       <name val="Arial"/>
     </font>
@@ -354,36 +363,45 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border/>
+    <border>
+      <right/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="19">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="3" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="4" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
@@ -392,8 +410,11 @@
     <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="3" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment readingOrder="0"/>
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    </xf>
+    <xf borderId="1" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="0" fillId="3" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
@@ -450,65 +471,66 @@
       <c r="B1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="3" t="s">
         <v>4</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="L1" s="4"/>
-      <c r="M1" s="4"/>
-      <c r="N1" s="4"/>
-      <c r="O1" s="4"/>
-      <c r="P1" s="4"/>
-      <c r="Q1" s="4"/>
-      <c r="R1" s="4"/>
-      <c r="S1" s="4"/>
-      <c r="T1" s="4"/>
-      <c r="U1" s="4"/>
-      <c r="V1" s="4"/>
-      <c r="W1" s="4"/>
-      <c r="X1" s="4"/>
-      <c r="Y1" s="4"/>
-      <c r="Z1" s="4"/>
-      <c r="AA1" s="4"/>
+        <v>15</v>
+      </c>
+      <c r="L1" s="2"/>
+      <c r="M1" s="2"/>
+      <c r="N1" s="2"/>
+      <c r="O1" s="2"/>
+      <c r="P1" s="2"/>
+      <c r="Q1" s="2"/>
+      <c r="R1" s="2"/>
+      <c r="S1" s="2"/>
+      <c r="T1" s="2"/>
+      <c r="U1" s="2"/>
+      <c r="V1" s="2"/>
+      <c r="W1" s="2"/>
+      <c r="X1" s="2"/>
+      <c r="Y1" s="2"/>
+      <c r="Z1" s="2"/>
+      <c r="AA1" s="2"/>
+      <c r="AB1" s="2"/>
     </row>
     <row r="2">
       <c r="A2" s="6" t="s">
         <v>18</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="C2" s="7" t="s">
-        <v>21</v>
+        <v>27</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>28</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>22</v>
+        <v>33</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="F2" s="6"/>
       <c r="G2" s="6"/>
@@ -532,92 +554,95 @@
       <c r="Y2" s="6"/>
       <c r="Z2" s="6"/>
       <c r="AA2" s="6"/>
+      <c r="AB2" s="6"/>
     </row>
     <row r="3">
-      <c r="A3" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="C3" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="D3" s="5"/>
-      <c r="E3" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="F3" s="5"/>
-      <c r="G3" s="5"/>
-      <c r="H3" s="5"/>
-      <c r="I3" s="5" t="s">
+      <c r="A3" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="J3" s="5"/>
-      <c r="K3" s="5"/>
-      <c r="L3" s="5"/>
-      <c r="M3" s="5"/>
-      <c r="N3" s="5"/>
-      <c r="O3" s="5"/>
-      <c r="P3" s="5"/>
-      <c r="Q3" s="5"/>
-      <c r="R3" s="5"/>
-      <c r="S3" s="5"/>
-      <c r="T3" s="5"/>
-      <c r="U3" s="5"/>
-      <c r="V3" s="5"/>
-      <c r="W3" s="5"/>
-      <c r="X3" s="5"/>
-      <c r="Y3" s="5"/>
-      <c r="Z3" s="5"/>
-      <c r="AA3" s="5"/>
+      <c r="B3" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="C3" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="D3" s="4"/>
+      <c r="E3" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="F3" s="4"/>
+      <c r="G3" s="4"/>
+      <c r="H3" s="4"/>
+      <c r="I3" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="J3" s="4"/>
+      <c r="K3" s="4"/>
+      <c r="L3" s="4"/>
+      <c r="M3" s="4"/>
+      <c r="N3" s="4"/>
+      <c r="O3" s="4"/>
+      <c r="P3" s="4"/>
+      <c r="Q3" s="4"/>
+      <c r="R3" s="4"/>
+      <c r="S3" s="4"/>
+      <c r="T3" s="4"/>
+      <c r="U3" s="4"/>
+      <c r="V3" s="4"/>
+      <c r="W3" s="4"/>
+      <c r="X3" s="4"/>
+      <c r="Y3" s="4"/>
+      <c r="Z3" s="4"/>
+      <c r="AA3" s="4"/>
+      <c r="AB3" s="4"/>
     </row>
     <row r="4">
-      <c r="A4" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="C4" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="D4" s="5"/>
-      <c r="E4" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="F4" s="5"/>
-      <c r="G4" s="5"/>
-      <c r="H4" s="5"/>
-      <c r="I4" s="5"/>
-      <c r="J4" s="5"/>
-      <c r="K4" s="5"/>
-      <c r="L4" s="5"/>
-      <c r="M4" s="5"/>
-      <c r="N4" s="5"/>
-      <c r="O4" s="5"/>
-      <c r="P4" s="5"/>
-      <c r="Q4" s="5"/>
-      <c r="R4" s="5"/>
-      <c r="S4" s="5"/>
-      <c r="T4" s="5"/>
-      <c r="U4" s="5"/>
-      <c r="V4" s="5"/>
-      <c r="W4" s="5"/>
-      <c r="X4" s="5"/>
-      <c r="Y4" s="5"/>
-      <c r="Z4" s="5"/>
-      <c r="AA4" s="5"/>
+      <c r="A4" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="C4" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="D4" s="4"/>
+      <c r="E4" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="F4" s="4"/>
+      <c r="G4" s="4"/>
+      <c r="H4" s="4"/>
+      <c r="I4" s="4"/>
+      <c r="J4" s="4"/>
+      <c r="K4" s="4"/>
+      <c r="L4" s="4"/>
+      <c r="M4" s="4"/>
+      <c r="N4" s="4"/>
+      <c r="O4" s="4"/>
+      <c r="P4" s="4"/>
+      <c r="Q4" s="4"/>
+      <c r="R4" s="4"/>
+      <c r="S4" s="4"/>
+      <c r="T4" s="4"/>
+      <c r="U4" s="4"/>
+      <c r="V4" s="4"/>
+      <c r="W4" s="4"/>
+      <c r="X4" s="4"/>
+      <c r="Y4" s="4"/>
+      <c r="Z4" s="4"/>
+      <c r="AA4" s="4"/>
+      <c r="AB4" s="4"/>
     </row>
     <row r="5">
       <c r="A5" s="6" t="s">
         <v>18</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="C5" s="7" t="s">
-        <v>39</v>
+        <v>42</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>43</v>
       </c>
       <c r="D5" s="6"/>
       <c r="E5" s="6"/>
@@ -643,119 +668,123 @@
       <c r="Y5" s="6"/>
       <c r="Z5" s="6"/>
       <c r="AA5" s="6"/>
+      <c r="AB5" s="6"/>
     </row>
     <row r="6">
-      <c r="A6" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="B6" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="C6" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="D6" s="5"/>
-      <c r="E6" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="F6" s="5"/>
-      <c r="G6" s="5"/>
-      <c r="H6" s="5" t="s">
+      <c r="A6" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="I6" s="5"/>
-      <c r="J6" s="5"/>
-      <c r="K6" s="5"/>
-      <c r="L6" s="5"/>
-      <c r="M6" s="5"/>
-      <c r="N6" s="5"/>
-      <c r="O6" s="5"/>
-      <c r="P6" s="5"/>
-      <c r="Q6" s="5"/>
-      <c r="R6" s="5"/>
-      <c r="S6" s="5"/>
-      <c r="T6" s="5"/>
-      <c r="U6" s="5"/>
-      <c r="V6" s="5"/>
-      <c r="W6" s="5"/>
-      <c r="X6" s="5"/>
-      <c r="Y6" s="5"/>
-      <c r="Z6" s="5"/>
-      <c r="AA6" s="5"/>
+      <c r="B6" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="C6" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="D6" s="4"/>
+      <c r="E6" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="F6" s="4"/>
+      <c r="G6" s="4"/>
+      <c r="H6" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="I6" s="4"/>
+      <c r="J6" s="4"/>
+      <c r="K6" s="4"/>
+      <c r="L6" s="4"/>
+      <c r="M6" s="4"/>
+      <c r="N6" s="4"/>
+      <c r="O6" s="4"/>
+      <c r="P6" s="4"/>
+      <c r="Q6" s="4"/>
+      <c r="R6" s="4"/>
+      <c r="S6" s="4"/>
+      <c r="T6" s="4"/>
+      <c r="U6" s="4"/>
+      <c r="V6" s="4"/>
+      <c r="W6" s="4"/>
+      <c r="X6" s="4"/>
+      <c r="Y6" s="4"/>
+      <c r="Z6" s="4"/>
+      <c r="AA6" s="4"/>
+      <c r="AB6" s="4"/>
     </row>
     <row r="7">
-      <c r="A7" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="B7" s="5" t="s">
+      <c r="A7" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="B7" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="D7" s="5"/>
-      <c r="E7" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="F7" s="5"/>
-      <c r="G7" s="5"/>
-      <c r="H7" s="5"/>
-      <c r="I7" s="5"/>
-      <c r="J7" s="5"/>
-      <c r="K7" s="5"/>
-      <c r="L7" s="5"/>
-      <c r="M7" s="5"/>
-      <c r="N7" s="5"/>
-      <c r="O7" s="5"/>
-      <c r="P7" s="5"/>
-      <c r="Q7" s="5"/>
-      <c r="R7" s="5"/>
-      <c r="S7" s="5"/>
-      <c r="T7" s="5"/>
-      <c r="U7" s="5"/>
-      <c r="V7" s="5"/>
-      <c r="W7" s="5"/>
-      <c r="X7" s="5"/>
-      <c r="Y7" s="5"/>
-      <c r="Z7" s="5"/>
-      <c r="AA7" s="5"/>
+      <c r="C7" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="D7" s="4"/>
+      <c r="E7" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="F7" s="4"/>
+      <c r="G7" s="4"/>
+      <c r="H7" s="4"/>
+      <c r="I7" s="4"/>
+      <c r="J7" s="4"/>
+      <c r="K7" s="4"/>
+      <c r="L7" s="4"/>
+      <c r="M7" s="4"/>
+      <c r="N7" s="4"/>
+      <c r="O7" s="4"/>
+      <c r="P7" s="4"/>
+      <c r="Q7" s="4"/>
+      <c r="R7" s="4"/>
+      <c r="S7" s="4"/>
+      <c r="T7" s="4"/>
+      <c r="U7" s="4"/>
+      <c r="V7" s="4"/>
+      <c r="W7" s="4"/>
+      <c r="X7" s="4"/>
+      <c r="Y7" s="4"/>
+      <c r="Z7" s="4"/>
+      <c r="AA7" s="4"/>
+      <c r="AB7" s="4"/>
     </row>
     <row r="8">
-      <c r="A8" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="B8" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="C8" s="8" t="s">
-        <v>50</v>
-      </c>
-      <c r="D8" s="5"/>
-      <c r="E8" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="F8" s="5"/>
-      <c r="G8" s="5"/>
-      <c r="H8" s="5"/>
-      <c r="I8" s="5"/>
-      <c r="J8" s="5"/>
-      <c r="K8" s="5"/>
-      <c r="L8" s="5"/>
-      <c r="M8" s="5"/>
-      <c r="N8" s="5"/>
-      <c r="O8" s="5"/>
-      <c r="P8" s="5"/>
-      <c r="Q8" s="5"/>
-      <c r="R8" s="5"/>
-      <c r="S8" s="5"/>
-      <c r="T8" s="5"/>
-      <c r="U8" s="5"/>
-      <c r="V8" s="5"/>
-      <c r="W8" s="5"/>
-      <c r="X8" s="5"/>
-      <c r="Y8" s="5"/>
-      <c r="Z8" s="5"/>
-      <c r="AA8" s="5"/>
+      <c r="A8" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="C8" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="D8" s="4"/>
+      <c r="E8" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="F8" s="4"/>
+      <c r="G8" s="4"/>
+      <c r="H8" s="4"/>
+      <c r="I8" s="4"/>
+      <c r="J8" s="4"/>
+      <c r="K8" s="4"/>
+      <c r="L8" s="4"/>
+      <c r="M8" s="4"/>
+      <c r="N8" s="4"/>
+      <c r="O8" s="4"/>
+      <c r="P8" s="4"/>
+      <c r="Q8" s="4"/>
+      <c r="R8" s="4"/>
+      <c r="S8" s="4"/>
+      <c r="T8" s="4"/>
+      <c r="U8" s="4"/>
+      <c r="V8" s="4"/>
+      <c r="W8" s="4"/>
+      <c r="X8" s="4"/>
+      <c r="Y8" s="4"/>
+      <c r="Z8" s="4"/>
+      <c r="AA8" s="4"/>
+      <c r="AB8" s="4"/>
     </row>
     <row r="9">
       <c r="A9" s="6" t="s">
@@ -764,7 +793,7 @@
       <c r="B9" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="C9" s="7" t="s">
+      <c r="C9" s="8" t="s">
         <v>54</v>
       </c>
       <c r="D9" s="6"/>
@@ -791,16 +820,17 @@
       <c r="Y9" s="6"/>
       <c r="Z9" s="6"/>
       <c r="AA9" s="6"/>
+      <c r="AB9" s="6"/>
     </row>
     <row r="10">
       <c r="A10" s="6" t="s">
         <v>18</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="C10" s="7" t="s">
-        <v>39</v>
+        <v>42</v>
+      </c>
+      <c r="C10" s="8" t="s">
+        <v>43</v>
       </c>
       <c r="D10" s="6"/>
       <c r="E10" s="6"/>
@@ -826,26 +856,27 @@
       <c r="Y10" s="6"/>
       <c r="Z10" s="6"/>
       <c r="AA10" s="6"/>
+      <c r="AB10" s="6"/>
     </row>
     <row r="11">
-      <c r="A11" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="B11" s="5" t="s">
+      <c r="A11" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="B11" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C11" s="5" t="s">
+      <c r="C11" s="4" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="B12" s="5" t="s">
+      <c r="A12" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="B12" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="C12" s="5" t="s">
+      <c r="C12" s="4" t="s">
         <v>57</v>
       </c>
     </row>
@@ -854,7 +885,7 @@
         <v>58</v>
       </c>
       <c r="B13" s="6"/>
-      <c r="C13" s="7"/>
+      <c r="C13" s="8"/>
       <c r="D13" s="6"/>
       <c r="E13" s="6"/>
       <c r="F13" s="6"/>
@@ -879,13 +910,14 @@
       <c r="Y13" s="6"/>
       <c r="Z13" s="6"/>
       <c r="AA13" s="6"/>
+      <c r="AB13" s="6"/>
     </row>
     <row r="14">
       <c r="A14" s="6" t="s">
         <v>58</v>
       </c>
       <c r="B14" s="6"/>
-      <c r="C14" s="7"/>
+      <c r="C14" s="8"/>
       <c r="D14" s="6"/>
       <c r="E14" s="6"/>
       <c r="F14" s="6"/>
@@ -910,13 +942,14 @@
       <c r="Y14" s="6"/>
       <c r="Z14" s="6"/>
       <c r="AA14" s="6"/>
+      <c r="AB14" s="6"/>
     </row>
     <row r="15">
       <c r="A15" s="6" t="s">
         <v>58</v>
       </c>
       <c r="B15" s="6"/>
-      <c r="C15" s="7"/>
+      <c r="C15" s="8"/>
       <c r="D15" s="6"/>
       <c r="E15" s="6"/>
       <c r="F15" s="6"/>
@@ -941,13 +974,14 @@
       <c r="Y15" s="6"/>
       <c r="Z15" s="6"/>
       <c r="AA15" s="6"/>
+      <c r="AB15" s="6"/>
     </row>
     <row r="16">
       <c r="A16" s="6" t="s">
         <v>58</v>
       </c>
       <c r="B16" s="6"/>
-      <c r="C16" s="7"/>
+      <c r="C16" s="8"/>
       <c r="D16" s="6"/>
       <c r="E16" s="6"/>
       <c r="F16" s="6"/>
@@ -972,352 +1006,397 @@
       <c r="Y16" s="6"/>
       <c r="Z16" s="6"/>
       <c r="AA16" s="6"/>
+      <c r="AB16" s="6"/>
     </row>
     <row r="18">
-      <c r="A18" s="5" t="s">
+      <c r="A18" s="12" t="s">
         <v>59</v>
       </c>
-      <c r="B18" s="5" t="s">
+      <c r="B18" s="12" t="s">
         <v>60</v>
       </c>
-      <c r="C18" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="D18" s="5"/>
-      <c r="E18" s="5"/>
-      <c r="F18" s="5"/>
-      <c r="G18" s="5" t="s">
+      <c r="C18" s="13" t="s">
         <v>61</v>
       </c>
-      <c r="H18" s="5"/>
-      <c r="I18" s="5"/>
-      <c r="J18" s="5"/>
-      <c r="K18" s="5"/>
-      <c r="L18" s="5"/>
-      <c r="M18" s="5"/>
-      <c r="N18" s="5"/>
-      <c r="O18" s="5"/>
-      <c r="P18" s="5"/>
-      <c r="Q18" s="5"/>
-      <c r="R18" s="5"/>
-      <c r="S18" s="5"/>
-      <c r="T18" s="5"/>
-      <c r="U18" s="5"/>
-      <c r="V18" s="5"/>
-      <c r="W18" s="5"/>
-      <c r="X18" s="5"/>
-      <c r="Y18" s="5"/>
-      <c r="Z18" s="5"/>
-      <c r="AA18" s="5"/>
+      <c r="D18" s="12"/>
+      <c r="E18" s="12"/>
+      <c r="F18" s="12"/>
+      <c r="G18" s="14" t="s">
+        <v>62</v>
+      </c>
+      <c r="H18" s="12"/>
+      <c r="I18" s="12"/>
+      <c r="J18" s="12"/>
+      <c r="K18" s="12"/>
+      <c r="L18" s="12"/>
+      <c r="M18" s="12"/>
+      <c r="N18" s="12"/>
+      <c r="O18" s="12"/>
+      <c r="P18" s="12"/>
+      <c r="Q18" s="12"/>
+      <c r="R18" s="12"/>
+      <c r="S18" s="12"/>
+      <c r="T18" s="12"/>
+      <c r="U18" s="12"/>
+      <c r="V18" s="12"/>
+      <c r="W18" s="12"/>
+      <c r="X18" s="12"/>
+      <c r="Y18" s="12"/>
+      <c r="Z18" s="12"/>
+      <c r="AA18" s="12"/>
+      <c r="AB18" s="12"/>
     </row>
     <row r="19">
-      <c r="A19" s="5" t="s">
+      <c r="A19" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="B19" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="C19" s="8" t="s">
+      <c r="B19" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="C19" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="D19" s="5"/>
-      <c r="E19" s="5"/>
-      <c r="F19" s="5"/>
-      <c r="G19" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="H19" s="5"/>
-      <c r="I19" s="5"/>
-      <c r="J19" s="5"/>
-      <c r="K19" s="5"/>
-      <c r="L19" s="5"/>
-      <c r="M19" s="5"/>
-      <c r="N19" s="5"/>
-      <c r="O19" s="5"/>
-      <c r="P19" s="5"/>
-      <c r="Q19" s="5"/>
-      <c r="R19" s="5"/>
-      <c r="S19" s="5"/>
-      <c r="T19" s="5"/>
-      <c r="U19" s="5"/>
-      <c r="V19" s="5"/>
-      <c r="W19" s="5"/>
-      <c r="X19" s="5"/>
-      <c r="Y19" s="5"/>
-      <c r="Z19" s="5"/>
-      <c r="AA19" s="5"/>
+      <c r="D19" s="4"/>
+      <c r="E19" s="4"/>
+      <c r="F19" s="4"/>
+      <c r="G19" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="H19" s="4"/>
+      <c r="I19" s="4"/>
+      <c r="J19" s="4"/>
+      <c r="K19" s="4"/>
+      <c r="L19" s="4"/>
+      <c r="M19" s="4"/>
+      <c r="N19" s="4"/>
+      <c r="O19" s="4"/>
+      <c r="P19" s="4"/>
+      <c r="Q19" s="4"/>
+      <c r="R19" s="4"/>
+      <c r="S19" s="4"/>
+      <c r="T19" s="4"/>
+      <c r="U19" s="4"/>
+      <c r="V19" s="4"/>
+      <c r="W19" s="4"/>
+      <c r="X19" s="4"/>
+      <c r="Y19" s="4"/>
+      <c r="Z19" s="4"/>
+      <c r="AA19" s="4"/>
+      <c r="AB19" s="4"/>
     </row>
     <row r="20">
-      <c r="A20" s="5" t="s">
+      <c r="A20" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="B20" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="C20" s="5" t="s">
+      <c r="B20" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="C20" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="D20" s="4"/>
+      <c r="E20" s="4"/>
+      <c r="F20" s="4"/>
+      <c r="G20" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="H20" s="4"/>
+      <c r="I20" s="4"/>
+      <c r="J20" s="4"/>
+      <c r="K20" s="4"/>
+      <c r="L20" s="4"/>
+      <c r="M20" s="4"/>
+      <c r="N20" s="4"/>
+      <c r="O20" s="4"/>
+      <c r="P20" s="4"/>
+      <c r="Q20" s="4"/>
+      <c r="R20" s="4"/>
+      <c r="S20" s="4"/>
+      <c r="T20" s="4"/>
+      <c r="U20" s="4"/>
+      <c r="V20" s="4"/>
+      <c r="W20" s="4"/>
+      <c r="X20" s="4"/>
+      <c r="Y20" s="4"/>
+      <c r="Z20" s="4"/>
+      <c r="AA20" s="4"/>
+      <c r="AB20" s="4"/>
+    </row>
+    <row r="21">
+      <c r="A21" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="C21" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="G20" s="5" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="5" t="s">
+      <c r="G21" s="4" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="B21" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="C21" s="5" t="s">
+      <c r="B22" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="C22" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="G21" s="5" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="6" t="s">
+      <c r="G22" s="4" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="B23" s="6" t="s">
-        <v>67</v>
-      </c>
-      <c r="C23" s="6" t="s">
-        <v>68</v>
-      </c>
-      <c r="D23" s="6"/>
-      <c r="E23" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="F23" s="6"/>
-      <c r="G23" s="6"/>
-      <c r="H23" s="6"/>
-      <c r="I23" s="6"/>
-      <c r="J23" s="6"/>
-      <c r="K23" s="6"/>
-      <c r="L23" s="6"/>
-      <c r="M23" s="6"/>
-      <c r="N23" s="6"/>
-      <c r="O23" s="6"/>
-      <c r="P23" s="6"/>
-      <c r="Q23" s="6"/>
-      <c r="R23" s="6"/>
-      <c r="S23" s="6"/>
-      <c r="T23" s="6"/>
-      <c r="U23" s="6"/>
-      <c r="V23" s="6"/>
-      <c r="W23" s="6"/>
-      <c r="X23" s="6"/>
-      <c r="Y23" s="6"/>
-      <c r="Z23" s="6"/>
-      <c r="AA23" s="6"/>
-    </row>
-    <row r="24">
-      <c r="A24" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="B24" s="5" t="s">
+      <c r="B24" s="6" t="s">
         <v>70</v>
       </c>
-      <c r="C24" s="12" t="s">
+      <c r="C24" s="6" t="s">
         <v>71</v>
       </c>
+      <c r="D24" s="6"/>
+      <c r="E24" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="F24" s="6"/>
+      <c r="G24" s="6"/>
+      <c r="H24" s="6"/>
+      <c r="I24" s="6"/>
+      <c r="J24" s="6"/>
+      <c r="K24" s="6"/>
+      <c r="L24" s="6"/>
+      <c r="M24" s="6"/>
+      <c r="N24" s="6"/>
+      <c r="O24" s="6"/>
+      <c r="P24" s="6"/>
+      <c r="Q24" s="6"/>
+      <c r="R24" s="6"/>
+      <c r="S24" s="6"/>
+      <c r="T24" s="6"/>
+      <c r="U24" s="6"/>
+      <c r="V24" s="6"/>
+      <c r="W24" s="6"/>
+      <c r="X24" s="6"/>
+      <c r="Y24" s="6"/>
+      <c r="Z24" s="6"/>
+      <c r="AA24" s="6"/>
+      <c r="AB24" s="6"/>
     </row>
     <row r="25">
-      <c r="A25" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="B25" s="5" t="s">
+      <c r="A25" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="C25" s="12" t="s">
+      <c r="B25" s="4" t="s">
         <v>73</v>
       </c>
+      <c r="C25" s="15" t="s">
+        <v>74</v>
+      </c>
     </row>
     <row r="26">
-      <c r="A26" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="B26" s="5" t="s">
+      <c r="A26" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="B26" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="C26" s="12" t="s">
+      <c r="C26" s="15" t="s">
         <v>76</v>
       </c>
-      <c r="F26" s="5" t="s">
-        <v>47</v>
-      </c>
     </row>
     <row r="27">
-      <c r="A27" s="5" t="s">
+      <c r="A27" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="B27" s="5" t="s">
+      <c r="B27" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="C27" s="13" t="s">
+      <c r="C27" s="15" t="s">
         <v>79</v>
       </c>
-      <c r="D27" s="5" t="s">
+      <c r="F27" s="4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="F27" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="J27" s="5" t="s">
+      <c r="B28" s="4" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="28">
-      <c r="A28" s="5" t="s">
+      <c r="C28" s="16" t="s">
         <v>82</v>
       </c>
-      <c r="B28" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="C28" s="8" t="s">
+      <c r="D28" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="D28" s="5" t="s">
-        <v>80</v>
-      </c>
-      <c r="F28" s="5" t="s">
-        <v>47</v>
+      <c r="F28" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="J28" s="4" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="29">
-      <c r="A29" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="B29" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="C29" s="8" t="s">
+      <c r="A29" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="D29" s="5" t="s">
+      <c r="B29" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C29" s="10" t="s">
         <v>86</v>
       </c>
-      <c r="F29" s="5" t="s">
-        <v>47</v>
+      <c r="D29" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="F29" s="4" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="30">
-      <c r="A30" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="B30" s="5" t="s">
+      <c r="A30" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="B30" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="C30" s="12" t="s">
+      <c r="C30" s="10" t="s">
         <v>88</v>
       </c>
-      <c r="D30" s="5" t="s">
+      <c r="D30" s="4" t="s">
         <v>89</v>
       </c>
+      <c r="F30" s="4" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="31">
-      <c r="A31" s="14" t="s">
-        <v>69</v>
-      </c>
-      <c r="B31" s="14" t="s">
+      <c r="A31" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="B31" s="4" t="s">
         <v>90</v>
       </c>
       <c r="C31" s="15" t="s">
         <v>91</v>
       </c>
-      <c r="D31" s="5" t="s">
-        <v>80</v>
-      </c>
-      <c r="E31" s="10"/>
-      <c r="F31" s="10"/>
-      <c r="G31" s="10"/>
-      <c r="H31" s="10"/>
-      <c r="I31" s="10"/>
-      <c r="J31" s="10"/>
-      <c r="K31" s="10"/>
-      <c r="L31" s="10"/>
-      <c r="M31" s="10"/>
-      <c r="N31" s="10"/>
-      <c r="O31" s="10"/>
-      <c r="P31" s="10"/>
-      <c r="Q31" s="10"/>
-      <c r="R31" s="10"/>
-      <c r="S31" s="10"/>
-      <c r="T31" s="10"/>
-      <c r="U31" s="10"/>
-      <c r="V31" s="10"/>
-      <c r="W31" s="10"/>
-      <c r="X31" s="10"/>
-      <c r="Y31" s="10"/>
-      <c r="Z31" s="10"/>
-      <c r="AA31" s="10"/>
+      <c r="D31" s="4" t="s">
+        <v>92</v>
+      </c>
     </row>
     <row r="32">
-      <c r="A32" s="10" t="s">
-        <v>92</v>
-      </c>
-      <c r="B32" s="10" t="s">
+      <c r="A32" s="17" t="s">
+        <v>72</v>
+      </c>
+      <c r="B32" s="17" t="s">
         <v>93</v>
       </c>
-      <c r="C32" s="10" t="s">
+      <c r="C32" s="18" t="s">
         <v>94</v>
       </c>
-      <c r="D32" s="10"/>
-      <c r="E32" s="10"/>
-      <c r="F32" s="10"/>
-      <c r="G32" s="10"/>
-      <c r="H32" s="10"/>
-      <c r="I32" s="10"/>
-      <c r="J32" s="10"/>
-      <c r="K32" s="10"/>
-      <c r="L32" s="10"/>
-      <c r="M32" s="10"/>
-      <c r="N32" s="10"/>
-      <c r="O32" s="10"/>
-      <c r="P32" s="10"/>
-      <c r="Q32" s="10"/>
-      <c r="R32" s="10"/>
-      <c r="S32" s="10"/>
-      <c r="T32" s="10"/>
-      <c r="U32" s="10"/>
-      <c r="V32" s="10"/>
-      <c r="W32" s="10"/>
-      <c r="X32" s="10"/>
-      <c r="Y32" s="10"/>
-      <c r="Z32" s="10"/>
-      <c r="AA32" s="10"/>
+      <c r="D32" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="E32" s="7"/>
+      <c r="F32" s="7"/>
+      <c r="G32" s="7"/>
+      <c r="H32" s="7"/>
+      <c r="I32" s="7"/>
+      <c r="J32" s="7"/>
+      <c r="K32" s="7"/>
+      <c r="L32" s="7"/>
+      <c r="M32" s="7"/>
+      <c r="N32" s="7"/>
+      <c r="O32" s="7"/>
+      <c r="P32" s="7"/>
+      <c r="Q32" s="7"/>
+      <c r="R32" s="7"/>
+      <c r="S32" s="7"/>
+      <c r="T32" s="7"/>
+      <c r="U32" s="7"/>
+      <c r="V32" s="7"/>
+      <c r="W32" s="7"/>
+      <c r="X32" s="7"/>
+      <c r="Y32" s="7"/>
+      <c r="Z32" s="7"/>
+      <c r="AA32" s="7"/>
+      <c r="AB32" s="7"/>
     </row>
     <row r="33">
-      <c r="A33" s="6" t="s">
+      <c r="A33" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="B33" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="C33" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="D33" s="7"/>
+      <c r="E33" s="7"/>
+      <c r="F33" s="7"/>
+      <c r="G33" s="7"/>
+      <c r="H33" s="7"/>
+      <c r="I33" s="7"/>
+      <c r="J33" s="7"/>
+      <c r="K33" s="7"/>
+      <c r="L33" s="7"/>
+      <c r="M33" s="7"/>
+      <c r="N33" s="7"/>
+      <c r="O33" s="7"/>
+      <c r="P33" s="7"/>
+      <c r="Q33" s="7"/>
+      <c r="R33" s="7"/>
+      <c r="S33" s="7"/>
+      <c r="T33" s="7"/>
+      <c r="U33" s="7"/>
+      <c r="V33" s="7"/>
+      <c r="W33" s="7"/>
+      <c r="X33" s="7"/>
+      <c r="Y33" s="7"/>
+      <c r="Z33" s="7"/>
+      <c r="AA33" s="7"/>
+      <c r="AB33" s="7"/>
+    </row>
+    <row r="34">
+      <c r="A34" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="B33" s="6"/>
-      <c r="C33" s="6"/>
-      <c r="D33" s="6"/>
-      <c r="E33" s="6"/>
-      <c r="F33" s="6"/>
-      <c r="G33" s="6"/>
-      <c r="H33" s="6"/>
-      <c r="I33" s="6"/>
-      <c r="J33" s="6"/>
-      <c r="K33" s="6"/>
-      <c r="L33" s="6"/>
-      <c r="M33" s="6"/>
-      <c r="N33" s="6"/>
-      <c r="O33" s="6"/>
-      <c r="P33" s="6"/>
-      <c r="Q33" s="6"/>
-      <c r="R33" s="6"/>
-      <c r="S33" s="6"/>
-      <c r="T33" s="6"/>
-      <c r="U33" s="6"/>
-      <c r="V33" s="6"/>
-      <c r="W33" s="6"/>
-      <c r="X33" s="6"/>
-      <c r="Y33" s="6"/>
-      <c r="Z33" s="6"/>
-      <c r="AA33" s="6"/>
+      <c r="B34" s="6"/>
+      <c r="C34" s="6"/>
+      <c r="D34" s="6"/>
+      <c r="E34" s="6"/>
+      <c r="F34" s="6"/>
+      <c r="G34" s="6"/>
+      <c r="H34" s="6"/>
+      <c r="I34" s="6"/>
+      <c r="J34" s="6"/>
+      <c r="K34" s="6"/>
+      <c r="L34" s="6"/>
+      <c r="M34" s="6"/>
+      <c r="N34" s="6"/>
+      <c r="O34" s="6"/>
+      <c r="P34" s="6"/>
+      <c r="Q34" s="6"/>
+      <c r="R34" s="6"/>
+      <c r="S34" s="6"/>
+      <c r="T34" s="6"/>
+      <c r="U34" s="6"/>
+      <c r="V34" s="6"/>
+      <c r="W34" s="6"/>
+      <c r="X34" s="6"/>
+      <c r="Y34" s="6"/>
+      <c r="Z34" s="6"/>
+      <c r="AA34" s="6"/>
+      <c r="AB34" s="6"/>
     </row>
   </sheetData>
   <drawing r:id="rId1"/>
@@ -1349,91 +1428,91 @@
       <c r="C1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4"/>
-      <c r="F1" s="4"/>
-      <c r="G1" s="4"/>
-      <c r="H1" s="4"/>
-      <c r="I1" s="4"/>
-      <c r="J1" s="4"/>
-      <c r="K1" s="4"/>
-      <c r="L1" s="4"/>
-      <c r="M1" s="4"/>
-      <c r="N1" s="4"/>
-      <c r="O1" s="4"/>
-      <c r="P1" s="4"/>
-      <c r="Q1" s="4"/>
-      <c r="R1" s="4"/>
-      <c r="S1" s="4"/>
-      <c r="T1" s="4"/>
-      <c r="U1" s="4"/>
-      <c r="V1" s="4"/>
-      <c r="W1" s="4"/>
-      <c r="X1" s="4"/>
-      <c r="Y1" s="4"/>
-      <c r="Z1" s="4"/>
-      <c r="AA1" s="4"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
+      <c r="I1" s="2"/>
+      <c r="J1" s="2"/>
+      <c r="K1" s="2"/>
+      <c r="L1" s="2"/>
+      <c r="M1" s="2"/>
+      <c r="N1" s="2"/>
+      <c r="O1" s="2"/>
+      <c r="P1" s="2"/>
+      <c r="Q1" s="2"/>
+      <c r="R1" s="2"/>
+      <c r="S1" s="2"/>
+      <c r="T1" s="2"/>
+      <c r="U1" s="2"/>
+      <c r="V1" s="2"/>
+      <c r="W1" s="2"/>
+      <c r="X1" s="2"/>
+      <c r="Y1" s="2"/>
+      <c r="Z1" s="2"/>
+      <c r="AA1" s="2"/>
     </row>
     <row r="2">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C2" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="B2" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="C2" s="5" t="s">
-        <v>25</v>
-      </c>
     </row>
     <row r="3">
-      <c r="A3" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="B3" s="5" t="s">
+      <c r="A3" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="B6" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="C6" s="7" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="B4" s="5" t="s">
+    <row r="7">
+      <c r="A7" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="B7" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="C7" s="7" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="B6" s="10" t="s">
-        <v>47</v>
-      </c>
-      <c r="C6" s="10" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="B7" s="10" t="s">
-        <v>51</v>
-      </c>
-      <c r="C7" s="10" t="s">
-        <v>52</v>
-      </c>
-    </row>
     <row r="18">
-      <c r="C18" s="11"/>
+      <c r="C18" s="9"/>
     </row>
     <row r="19">
-      <c r="C19" s="11"/>
+      <c r="C19" s="9"/>
     </row>
   </sheetData>
   <drawing r:id="rId1"/>
@@ -1461,48 +1540,48 @@
       <c r="B1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C1" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="E1" s="4"/>
-      <c r="F1" s="4"/>
-      <c r="G1" s="4"/>
-      <c r="H1" s="4"/>
-      <c r="I1" s="4"/>
-      <c r="J1" s="4"/>
-      <c r="K1" s="4"/>
-      <c r="L1" s="4"/>
-      <c r="M1" s="4"/>
-      <c r="N1" s="4"/>
-      <c r="O1" s="4"/>
-      <c r="P1" s="4"/>
-      <c r="Q1" s="4"/>
-      <c r="R1" s="4"/>
-      <c r="S1" s="4"/>
-      <c r="T1" s="4"/>
-      <c r="U1" s="4"/>
-      <c r="V1" s="4"/>
-      <c r="W1" s="4"/>
-      <c r="X1" s="4"/>
-      <c r="Y1" s="4"/>
-      <c r="Z1" s="4"/>
+      <c r="C1" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
+      <c r="I1" s="2"/>
+      <c r="J1" s="2"/>
+      <c r="K1" s="2"/>
+      <c r="L1" s="2"/>
+      <c r="M1" s="2"/>
+      <c r="N1" s="2"/>
+      <c r="O1" s="2"/>
+      <c r="P1" s="2"/>
+      <c r="Q1" s="2"/>
+      <c r="R1" s="2"/>
+      <c r="S1" s="2"/>
+      <c r="T1" s="2"/>
+      <c r="U1" s="2"/>
+      <c r="V1" s="2"/>
+      <c r="W1" s="2"/>
+      <c r="X1" s="2"/>
+      <c r="Y1" s="2"/>
+      <c r="Z1" s="2"/>
     </row>
     <row r="2">
-      <c r="A2" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="C2" s="9" t="str">
+      <c r="A2" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C2" s="11" t="str">
         <f>TEXT(NOW(), "yyyy-mm-dd HH-MM")</f>
-        <v>2019-02-06 14-20</v>
-      </c>
-      <c r="D2" s="10" t="s">
-        <v>40</v>
+        <v>2019-04-08 09-48</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>44</v>
       </c>
     </row>
   </sheetData>
